--- a/c#/MNK2dim/MNK2dim/radio.xlsx
+++ b/c#/MNK2dim/MNK2dim/radio.xlsx
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C98" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2989,7 +2989,7 @@
         <v>863950</v>
       </c>
       <c r="B29">
-        <v>56.000003814697301</v>
+        <v>56</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3007,7 +3007,7 @@
         <v>1116</v>
       </c>
       <c r="H29">
-        <v>19993</v>
+        <v>20000</v>
       </c>
       <c r="I29">
         <v>4.9996379762888003E-2</v>
@@ -6122,7 +6122,7 @@
         <v>475</v>
       </c>
       <c r="H64">
-        <v>10148</v>
+        <v>10000</v>
       </c>
       <c r="I64">
         <v>6.4913742244243594E-2</v>
@@ -8436,7 +8436,7 @@
         <v>236</v>
       </c>
       <c r="H90">
-        <v>5032</v>
+        <v>5000</v>
       </c>
       <c r="I90">
         <v>359.88516235351602</v>
@@ -9504,7 +9504,7 @@
         <v>142</v>
       </c>
       <c r="H102">
-        <v>3054</v>
+        <v>3000</v>
       </c>
       <c r="I102">
         <v>359.95983886718801</v>
@@ -10038,7 +10038,7 @@
         <v>96</v>
       </c>
       <c r="H108">
-        <v>2040</v>
+        <v>2000</v>
       </c>
       <c r="I108">
         <v>5.9832453727722203E-2</v>
